--- a/experiment/Instance_200.xlsx
+++ b/experiment/Instance_200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CodingEnvironment\dvrpsd\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9E085B-11B6-4861-94DE-D2DF6606688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74CC2-6353-4A44-8F52-A869FECE0EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93FFFF57-FEE7-4EE0-B9D7-4FA2DBA5B2AD}"/>
   </bookViews>
@@ -207,19 +207,19 @@
     <t>h200RC1_2_10.csv</t>
   </si>
   <si>
-    <t>instance</t>
-  </si>
-  <si>
     <t>seed</t>
   </si>
   <si>
-    <t>te</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>tr</t>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>rd</t>
   </si>
 </sst>
 </file>
@@ -574,26 +574,26 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
